--- a/analise_curva_abc/divisao/itens_para_dividir_classificar.xlsx
+++ b/analise_curva_abc/divisao/itens_para_dividir_classificar.xlsx
@@ -1,15 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\projetos\projeto_curva_abc\analise_curva_abc\divisao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A11EC1-7538-40C8-A9DB-EFAE26ED3837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,7 +120,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,44 +143,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,14 +207,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -222,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -233,178 +254,156 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -447,7 +446,7 @@
         <v>102133</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -470,7 +469,7 @@
         <v>101168</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -493,7 +492,7 @@
         <v>102398</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -516,7 +515,7 @@
         <v>109020</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -539,7 +538,7 @@
         <v>10559</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,7 +561,7 @@
         <v>11964</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,7 +584,7 @@
         <v>102058</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,7 +607,7 @@
         <v>10539</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -631,7 +630,7 @@
         <v>102347</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -654,7 +653,7 @@
         <v>101368</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +676,7 @@
         <v>102018</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -700,7 +699,7 @@
         <v>102255</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -723,7 +722,7 @@
         <v>11096</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -746,7 +745,7 @@
         <v>101355</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -769,7 +768,7 @@
         <v>407759</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,7 +791,7 @@
         <v>11254</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,7 +814,7 @@
         <v>101908</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,7 +837,7 @@
         <v>11367</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,7 +860,7 @@
         <v>10939</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,7 +883,7 @@
         <v>10060</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,7 +906,7 @@
         <v>10867</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,7 +929,7 @@
         <v>101155</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,7 +952,7 @@
         <v>101471</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,7 +975,7 @@
         <v>232501</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,7 +998,7 @@
         <v>232339</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>10248</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>10412</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>10938</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>10161</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>10944</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>102292</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>10949</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>12017</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>10818</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>11186</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1251,7 @@
         <v>11791</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>62334</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1298,7 +1297,7 @@
         <v>11029</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>11965</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>10819</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>11516</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>231322</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>102604</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>10497</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>63628</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>12133</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>102428</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>10221</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>12584</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>110011</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>10238</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>234130</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>231067</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>102190</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>10219</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>10691</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>11323</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>500079</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>101227</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>10409</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>11065</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>408527</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -1942,7 +1941,7 @@
         <v>19152</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>10427</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>10115</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>62999</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>12896</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>10144</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -2080,7 +2079,7 @@
         <v>14070</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>10960</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>63508</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>10373</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>231301</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>10957</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>450326</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
